--- a/makurodatabases/我国真实利率逆周期波动.xlsx
+++ b/makurodatabases/我国真实利率逆周期波动.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13631\Desktop\宏观经济学图库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\makurodatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3F269A-8468-4AD0-833B-2976FC6EBC33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62097EBE-14C1-47DE-BC7C-BA3BDEDDB2EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,7 +976,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>真实利率与工业增加值</a:t>
+              <a:t>真实利率与工业增加值（重要）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1402,7 +1402,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1562,14 +1563,15 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="window" lastClr="FFFFFF">
+        <a:lumMod val="95000"/>
+      </a:sysClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="window" lastClr="FFFFFF">
+          <a:lumMod val="85000"/>
+        </a:sysClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3729,15 +3731,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>359568</xdr:colOff>
+      <xdr:colOff>574216</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>100016</xdr:rowOff>
+      <xdr:rowOff>86600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123823</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>429296</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>127447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4961,8 +4963,8 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5007,7 +5009,7 @@
         <v>-0.8</v>
       </c>
       <c r="F2">
-        <f>D2-E2</f>
+        <f t="shared" ref="F2:F23" si="0">D2-E2</f>
         <v>4.58</v>
       </c>
     </row>
@@ -5028,7 +5030,7 @@
         <v>-1.4</v>
       </c>
       <c r="F3">
-        <f>D3-E3</f>
+        <f t="shared" si="0"/>
         <v>3.65</v>
       </c>
     </row>
@@ -5049,7 +5051,7 @@
         <v>0.4</v>
       </c>
       <c r="F4">
-        <f>D4-E4</f>
+        <f t="shared" si="0"/>
         <v>1.85</v>
       </c>
     </row>
@@ -5070,7 +5072,7 @@
         <v>0.7</v>
       </c>
       <c r="F5">
-        <f>D5-E5</f>
+        <f t="shared" si="0"/>
         <v>1.55</v>
       </c>
     </row>
@@ -5091,7 +5093,7 @@
         <v>-0.8</v>
       </c>
       <c r="F6">
-        <f>D6-E6</f>
+        <f t="shared" si="0"/>
         <v>2.7800000000000002</v>
       </c>
     </row>
@@ -5112,7 +5114,7 @@
         <v>1.2</v>
       </c>
       <c r="F7">
-        <f>D7-E7</f>
+        <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
     </row>
@@ -5133,7 +5135,7 @@
         <v>3.9</v>
       </c>
       <c r="F8">
-        <f>D8-E8</f>
+        <f t="shared" si="0"/>
         <v>-1.65</v>
       </c>
     </row>
@@ -5154,7 +5156,7 @@
         <v>1.8</v>
       </c>
       <c r="F9">
-        <f>D9-E9</f>
+        <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -5175,7 +5177,7 @@
         <v>1.5</v>
       </c>
       <c r="F10">
-        <f>D10-E10</f>
+        <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
     </row>
@@ -5196,7 +5198,7 @@
         <v>4.8</v>
       </c>
       <c r="F11">
-        <f>D11-E11</f>
+        <f t="shared" si="0"/>
         <v>-0.66000000000000014</v>
       </c>
     </row>
@@ -5217,7 +5219,7 @@
         <v>5.9</v>
       </c>
       <c r="F12">
-        <f>D12-E12</f>
+        <f t="shared" si="0"/>
         <v>-3.6500000000000004</v>
       </c>
     </row>
@@ -5238,7 +5240,7 @@
         <v>-0.7</v>
       </c>
       <c r="F13">
-        <f>D13-E13</f>
+        <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
     </row>
@@ -5259,7 +5261,7 @@
         <v>3.3</v>
       </c>
       <c r="F14">
-        <f>D14-E14</f>
+        <f t="shared" si="0"/>
         <v>-0.54999999999999982</v>
       </c>
     </row>
@@ -5280,7 +5282,7 @@
         <v>5.4</v>
       </c>
       <c r="F15">
-        <f>D15-E15</f>
+        <f t="shared" si="0"/>
         <v>-1.9000000000000004</v>
       </c>
     </row>
@@ -5301,7 +5303,7 @@
         <v>2.6</v>
       </c>
       <c r="F16">
-        <f>D16-E16</f>
+        <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
     </row>
@@ -5322,7 +5324,7 @@
         <v>2.6</v>
       </c>
       <c r="F17">
-        <f>D17-E17</f>
+        <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
     </row>
@@ -5343,7 +5345,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <f>D18-E18</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -5364,7 +5366,7 @@
         <v>1.4</v>
       </c>
       <c r="F19">
-        <f>D19-E19</f>
+        <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -5385,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <f>D20-E20</f>
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -5406,7 +5408,7 @@
         <v>1.6</v>
       </c>
       <c r="F21">
-        <f>D21-E21</f>
+        <f t="shared" si="0"/>
         <v>-0.10000000000000009</v>
       </c>
     </row>
@@ -5427,7 +5429,7 @@
         <v>2.1</v>
       </c>
       <c r="F22">
-        <f>D22-E22</f>
+        <f t="shared" si="0"/>
         <v>-0.60000000000000009</v>
       </c>
     </row>
@@ -5448,7 +5450,7 @@
         <v>2.9</v>
       </c>
       <c r="F23">
-        <f>D23-E23</f>
+        <f t="shared" si="0"/>
         <v>-1.4</v>
       </c>
     </row>
